--- a/hw5_HashTable/hash-table-statistic.xlsx
+++ b/hw5_HashTable/hash-table-statistic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="23280" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>кол-во вёдер</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>что-то получше</t>
+  </si>
+  <si>
+    <t>Наиболее часто встречающееся слово "и" - 1389</t>
   </si>
 </sst>
 </file>
@@ -97,10 +100,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -403,15 +406,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
@@ -440,7 +443,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B2">
@@ -460,7 +463,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="A3" s="4"/>
       <c r="B3">
         <v>10</v>
       </c>
@@ -478,7 +481,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4"/>
       <c r="B4">
         <v>100</v>
       </c>
@@ -496,7 +499,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -514,7 +517,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+      <c r="A6" s="4"/>
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -532,7 +535,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -550,7 +553,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B8">
@@ -570,7 +573,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+      <c r="A9" s="4"/>
       <c r="B9">
         <v>10</v>
       </c>
@@ -588,7 +591,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="4"/>
       <c r="B10">
         <v>100</v>
       </c>
@@ -606,7 +609,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+      <c r="A11" s="4"/>
       <c r="B11" t="s">
         <v>6</v>
       </c>
@@ -624,7 +627,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" t="s">
         <v>7</v>
       </c>
@@ -642,7 +645,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" t="s">
         <v>8</v>
       </c>
@@ -660,7 +663,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B14">
@@ -680,7 +683,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15">
         <v>10</v>
       </c>
@@ -698,7 +701,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16">
         <v>100</v>
       </c>
@@ -716,7 +719,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" t="s">
         <v>6</v>
       </c>
@@ -734,7 +737,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
+      <c r="A18" s="4"/>
       <c r="B18" t="s">
         <v>7</v>
       </c>
@@ -752,7 +755,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
+      <c r="A19" s="4"/>
       <c r="B19" t="s">
         <v>8</v>
       </c>
@@ -767,6 +770,11 @@
       </c>
       <c r="F19">
         <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
